--- a/artfynd/A 28361-2019.xlsx
+++ b/artfynd/A 28361-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,6 +1396,125 @@
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111865580</v>
+      </c>
+      <c r="B8" t="n">
+        <v>85426</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1982</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dysterspindling</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cortinarius ectypus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>J. Favre</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>S Rotsjön, Vstm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>545686</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6604772</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Köping</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Kolsva</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2019-09-11</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2019-09-11</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Tina Nordberg</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Tina Nordberg, Kenneth Nordberg</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 28361-2019.xlsx
+++ b/artfynd/A 28361-2019.xlsx
@@ -1401,7 +1401,7 @@
         <v>111865580</v>
       </c>
       <c r="B8" t="n">
-        <v>85426</v>
+        <v>85547</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
